--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns_5.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB0152D-F249-4E8D-BCD8-1EF9DC8F48DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4BA892-42EB-4A6A-993C-12E71C70FC95}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="525" yWindow="2235" windowWidth="31875" windowHeight="17670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,12 +70,6 @@
     <t>Test test2 test2Test</t>
   </si>
   <si>
-    <t>param1</t>
-  </si>
-  <si>
-    <t>param2</t>
-  </si>
-  <si>
     <t>_res_</t>
   </si>
   <si>
@@ -89,6 +83,12 @@
   </si>
   <si>
     <t>x1 * 2 == p1 &amp;&amp; x2 == p2</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
   </si>
 </sst>
 </file>
@@ -284,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -305,31 +305,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -338,34 +364,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,32 +738,32 @@
   <dimension ref="C2:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="22" t="s">
         <v>11</v>
       </c>
     </row>
@@ -768,73 +771,73 @@
       <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="32"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="29" t="s">
+      <c r="F5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="11" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="3:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="34" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -845,10 +848,10 @@
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="20">
+      <c r="C14" s="35">
         <v>1</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="36">
         <v>1</v>
       </c>
       <c r="E14">
@@ -859,10 +862,10 @@
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C15" s="20">
+      <c r="C15" s="35">
         <v>2</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="36">
         <v>2</v>
       </c>
       <c r="E15">
@@ -873,10 +876,10 @@
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C16" s="20">
+      <c r="C16" s="35">
         <v>3</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="36">
         <v>3</v>
       </c>
       <c r="E16">
@@ -887,10 +890,10 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="20">
+      <c r="C17" s="35">
         <v>4</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="36">
         <v>4</v>
       </c>
       <c r="E17">
@@ -901,10 +904,10 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="20">
+      <c r="C18" s="35">
         <v>5</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="36"/>
       <c r="E18">
         <v>2</v>
       </c>
@@ -913,10 +916,10 @@
       </c>
     </row>
     <row r="19" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="21">
+      <c r="C19" s="29">
         <v>6</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="4">
         <v>1</v>
       </c>
@@ -926,37 +929,37 @@
     </row>
     <row r="22" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C26" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" s="12">
         <v>5</v>
@@ -966,22 +969,21 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:D24"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C12:F12"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G6"/>
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
